--- a/addons-default/l10n_ua_address/data/res.country.state.xlsx
+++ b/addons-default/l10n_ua_address/data/res.country.state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\coding\odoo\project\dgf\addons-dgf\l10n_ua_address\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\coding\odoo\project\dgf\liquidation-dev\addons-default\l10n_ua_address\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,9 +328,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -354,15 +363,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -377,13 +377,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="5"/>
-    <tableColumn id="2" name="name" dataDxfId="1"/>
-    <tableColumn id="3" name="code" dataDxfId="0"/>
-    <tableColumn id="4" name="country_id" dataDxfId="4"/>
+    <tableColumn id="1" name="id" dataDxfId="3"/>
+    <tableColumn id="2" name="name" dataDxfId="2"/>
+    <tableColumn id="3" name="code" dataDxfId="1"/>
+    <tableColumn id="4" name="country_id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -392,7 +392,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -430,7 +430,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -502,7 +502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
